--- a/patient_data/patient_37.xlsx
+++ b/patient_data/patient_37.xlsx
@@ -779,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -933,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1010,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1087,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1416,22 +1416,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1493,22 +1493,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1570,22 +1570,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
